--- a/data/trans_dic/P19C08-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Dificultad-trans_dic.xlsx
@@ -718,10 +718,10 @@
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.007864958253941876</v>
+        <v>0.006976158762623744</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0009841890388653574</v>
+        <v>0.0009898842740026128</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006024234941257958</v>
+        <v>0.006065899773445934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0005548991093576569</v>
+        <v>0.0005571674916876438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0005350526278741055</v>
+        <v>0.0005350140886839364</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01704099821563781</v>
+        <v>0.01706483125815659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.00806202394761232</v>
+        <v>0.006010919765976146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.009631647071063208</v>
+        <v>0.009417331591476697</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.02617064071239459</v>
+        <v>0.02719746186617425</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.008092616529526179</v>
+        <v>0.00811387118929321</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.00807906672596987</v>
+        <v>0.01116220733678932</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.007221914151162668</v>
+        <v>0.006945564667954401</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01862418240403503</v>
+        <v>0.01899101562584357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.005424898304497688</v>
+        <v>0.005077104781068701</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.006103622779096399</v>
+        <v>0.005994936145152892</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.004024624258549245</v>
+        <v>0.004114052822298786</v>
       </c>
     </row>
     <row r="7">
@@ -843,35 +843,35 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002873673944369212</v>
+        <v>0.002401912815219947</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.0007826488780965167</v>
+        <v>0.0007730236849260311</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004985755564277192</v>
+        <v>0.004961555157884563</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001125373508291793</v>
+        <v>0.001143038481382535</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0005652102467191123</v>
+        <v>0.0005655170130979062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00504100956104207</v>
+        <v>0.005110034463413988</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001441391905876877</v>
+        <v>0.001335076025040722</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007818451199457042</v>
+        <v>0.008764390819536942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01865814815631727</v>
+        <v>0.02098517304110365</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.009591141849464746</v>
+        <v>0.009516182784858229</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.006833494096522548</v>
+        <v>0.005855285956412941</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01931677515789753</v>
+        <v>0.01869144025293467</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.008529478972137721</v>
+        <v>0.009348094727898618</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.008705625179652768</v>
+        <v>0.008335361568504928</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.00469653374785952</v>
+        <v>0.00484323492094936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0160120985151841</v>
+        <v>0.01575083534388627</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.004716654733395812</v>
+        <v>0.004979500799949192</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.00694007474937357</v>
+        <v>0.006824374959979125</v>
       </c>
     </row>
     <row r="10">
@@ -975,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004494945502959735</v>
+        <v>0.003820049807236278</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003721621829300279</v>
+        <v>0.003445309131581927</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.001208871557870174</v>
+        <v>0.001216678100783263</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003014242421523552</v>
+        <v>0.002874137385972921</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003137697716366726</v>
+        <v>0.003675781624913312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.000743151399380825</v>
+        <v>0.0007472140038807905</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004158100013836856</v>
+        <v>0.004151808982340363</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.005709963021886221</v>
+        <v>0.004632136908641756</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02035108881937742</v>
+        <v>0.02137332176406888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009509511773110008</v>
+        <v>0.009971583621306917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02313410291401739</v>
+        <v>0.0242747708020231</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.006737108092901707</v>
+        <v>0.006526135263515403</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01049088921590248</v>
+        <v>0.01100975623172257</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01071193798944014</v>
+        <v>0.01010825063895112</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01370296984018977</v>
+        <v>0.01291555548155911</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.004216153721642853</v>
+        <v>0.003837190850384153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0128372356267437</v>
+        <v>0.01242274696103285</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.007395900510704291</v>
+        <v>0.007470127275974647</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01419587840293598</v>
+        <v>0.01400317506473636</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.005143137652923551</v>
+        <v>0.00514313765292355</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.007432907487089368</v>
@@ -1108,14 +1108,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002655156795860614</v>
+        <v>0.00267349639365368</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001912879412581571</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.002132695833543372</v>
+        <v>0.001936283744711345</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1125,17 +1125,17 @@
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.002134971259901698</v>
+        <v>0.002055433092184159</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002887538980189747</v>
+        <v>0.002896858466827034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00224795105707858</v>
+        <v>0.002120499113189955</v>
       </c>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.002659008987810309</v>
+        <v>0.002820101529865035</v>
       </c>
     </row>
     <row r="15">
@@ -1146,34 +1146,34 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02633646927486996</v>
+        <v>0.02671879821061071</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0185369409403329</v>
+        <v>0.01699415233516314</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.01227681668064032</v>
+        <v>0.01121513293476821</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0183336409061823</v>
+        <v>0.01837000712949113</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01725240435932418</v>
+        <v>0.01664207373010481</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.01035519365793163</v>
+        <v>0.009948808869590865</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01611388574224214</v>
+        <v>0.01716571478410486</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01335972451584214</v>
+        <v>0.01227195347058255</v>
       </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.008645756203862461</v>
+        <v>0.008754200027074329</v>
       </c>
     </row>
     <row r="16">
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001529743093751064</v>
+        <v>0.001524878435046608</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003542125348316664</v>
+        <v>0.003650951158353984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0003935187876536523</v>
+        <v>0.0003867942662720793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00287190573183389</v>
+        <v>0.002864106682391275</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002845044932492318</v>
+        <v>0.002770122373736756</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003490299015654057</v>
+        <v>0.003431092926844804</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0007467198444812467</v>
+        <v>0.0007720945061792483</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.00283523280450816</v>
+        <v>0.002813005112863786</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002801310980785644</v>
+        <v>0.002676093311223537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004202405288442713</v>
+        <v>0.004239806692261464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0008914914565522404</v>
+        <v>0.0009659387754771353</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.00355946234193605</v>
+        <v>0.003435800503518149</v>
       </c>
     </row>
     <row r="18">
@@ -1276,40 +1276,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.006214505873638703</v>
+        <v>0.006488612364784033</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0102816893956155</v>
+        <v>0.010234616375078</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.003707420114257924</v>
+        <v>0.003846374880888059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.009663045290519026</v>
+        <v>0.009613511667579752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.009169071115426933</v>
+        <v>0.008522992755225172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.008989104813898386</v>
+        <v>0.0089838821760478</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.004493944133353518</v>
+        <v>0.004752375842913642</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.007071717931879664</v>
+        <v>0.006830745311470733</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.006246180126965852</v>
+        <v>0.006484355797915923</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.008563038994208832</v>
+        <v>0.00816935374613322</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.003363745465071398</v>
+        <v>0.003671045215827566</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.007301149202408225</v>
+        <v>0.007121598910282663</v>
       </c>
     </row>
     <row r="19">
@@ -1590,10 +1590,10 @@
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>5746</v>
+        <v>5097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6786</v>
+        <v>6833</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>913</v>
@@ -1622,38 +1622,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6747</v>
+        <v>6756</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6654</v>
+        <v>4961</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7555</v>
+        <v>7387</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>19120</v>
+        <v>19871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7652</v>
+        <v>7672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7455</v>
+        <v>10300</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4255</v>
+        <v>4092</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20981</v>
+        <v>21394</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9607</v>
+        <v>8991</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10419</v>
+        <v>10234</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>4192</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="8">
@@ -1759,35 +1759,35 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2416</v>
+        <v>2019</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4800</v>
+        <v>4777</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9092</v>
+        <v>9216</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2895</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="11">
@@ -1798,38 +1798,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6248</v>
+        <v>7004</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15687</v>
+        <v>17644</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>8835</v>
+        <v>8766</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5808</v>
+        <v>4977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18598</v>
+        <v>17996</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7188</v>
+        <v>7877</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9464</v>
+        <v>9062</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7745</v>
+        <v>7987</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28878</v>
+        <v>28407</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7344</v>
+        <v>7753</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13938</v>
+        <v>13705</v>
       </c>
     </row>
     <row r="12">
@@ -1935,37 +1935,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3505</v>
+        <v>2979</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3814</v>
+        <v>3531</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3105</v>
+        <v>2961</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4973</v>
+        <v>5825</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8545</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="15">
@@ -1976,40 +1976,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5091</v>
+        <v>4130</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15869</v>
+        <v>16666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6810</v>
+        <v>7141</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23711</v>
+        <v>24880</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5589</v>
+        <v>5414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8446</v>
+        <v>8863</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7059</v>
+        <v>6661</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14115</v>
+        <v>13304</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7257</v>
+        <v>6604</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20345</v>
+        <v>19688</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10170</v>
+        <v>10272</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>29173</v>
+        <v>28777</v>
       </c>
     </row>
     <row r="16">
@@ -2112,14 +2112,14 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>2026</v>
+        <v>1839</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2129,17 +2129,17 @@
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1880</v>
+        <v>1810</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1955</v>
+        <v>1844</v>
       </c>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>4868</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="19">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8953</v>
+        <v>9083</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8419</v>
+        <v>7719</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>11663</v>
+        <v>10654</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5108</v>
+        <v>5118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7168</v>
+        <v>6914</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>9120</v>
+        <v>8762</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9968</v>
+        <v>10618</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11618</v>
+        <v>10672</v>
       </c>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>15828</v>
+        <v>16027</v>
       </c>
     </row>
     <row r="20">
@@ -2280,40 +2280,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3712</v>
+        <v>3700</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10273</v>
+        <v>10588</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9616</v>
+        <v>9590</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7650</v>
+        <v>7448</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10921</v>
+        <v>10735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2132</v>
+        <v>2205</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10170</v>
+        <v>10091</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14330</v>
+        <v>13689</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25336</v>
+        <v>25562</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4903</v>
+        <v>5313</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>24687</v>
+        <v>23829</v>
       </c>
     </row>
     <row r="23">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15080</v>
+        <v>15745</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29818</v>
+        <v>29682</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9804</v>
+        <v>10172</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32355</v>
+        <v>32190</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24654</v>
+        <v>22917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28126</v>
+        <v>28109</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12833</v>
+        <v>13571</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25367</v>
+        <v>24503</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>31951</v>
+        <v>33170</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>51627</v>
+        <v>49253</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>18501</v>
+        <v>20192</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>50637</v>
+        <v>49392</v>
       </c>
     </row>
     <row r="24">
